--- a/numneeded.xlsx
+++ b/numneeded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{689F8307-632F-4585-B9CE-5B167C54F54D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F37CCFD3-E881-4137-82EA-BDB325D042D9}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{689F8307-632F-4585-B9CE-5B167C54F54D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{272598A0-E120-4219-9656-B26431637287}"/>
   <bookViews>
     <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{B46B52B7-89DD-4649-A2C1-DCBA7368C6DA}"/>
   </bookViews>
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.5160819154022054E-4</v>
+        <v>5.3366599081438642E-5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.0778491799086305E-5</v>
+        <v>1.2294770851562653E-4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.0920783010546818E-4</v>
+        <v>1.5167193611239545E-4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.003797661254438E-4</v>
+        <v>2.4458743735089855E-4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.4293298892895437E-4</v>
+        <v>1.6573017981402017E-4</v>
       </c>
     </row>
   </sheetData>
@@ -467,15 +467,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E31C581AABD3D438D1210A0B9E9BAAA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a880cdde40dd4aeca72a964086578e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c349c498-aafa-4611-9c89-399ce2bd3502" xmlns:ns4="dabdaea4-a51c-41c0-88c7-2dcca5159689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8273ed8f1d147cc376b7c2884efaf481" ns3:_="" ns4:_="">
     <xsd:import namespace="c349c498-aafa-4611-9c89-399ce2bd3502"/>
@@ -698,6 +689,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C2C0C4A-9304-4CEF-8C14-3A21DA7F7A3C}">
   <ds:schemaRefs>
@@ -708,14 +708,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AA671FB-FB7C-4341-BD7C-1B37414345ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D9F8AB2-EDBE-4709-B73F-1C174A718033}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -732,4 +724,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AA671FB-FB7C-4341-BD7C-1B37414345ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/numneeded.xlsx
+++ b/numneeded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{689F8307-632F-4585-B9CE-5B167C54F54D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{272598A0-E120-4219-9656-B26431637287}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A8C23449-A095-45D2-B1D9-8F2E0864C320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{001809C7-E431-4CDD-B508-0410BA66BCF4}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{B46B52B7-89DD-4649-A2C1-DCBA7368C6DA}"/>
+    <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{A2A3957C-E7D2-4557-9D7D-C5C2E4273A03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA75381F-89B3-411B-97F1-30D36B6720F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADE6BDE-15FD-4EB4-ABEB-F347D17EE0D9}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.3366599081438642E-5</v>
+        <v>1.0234096498960815E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.2294770851562653E-4</v>
+        <v>9.8065244695883114E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.5167193611239545E-4</v>
+        <v>1.817617422822404E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.4458743735089855E-4</v>
+        <v>3.7976831302737532E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.6573017981402017E-4</v>
+        <v>2.5087134376449416E-3</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C2C0C4A-9304-4CEF-8C14-3A21DA7F7A3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513D0518-F28A-4489-84E9-58F9FDA95806}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -708,7 +708,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D9F8AB2-EDBE-4709-B73F-1C174A718033}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87CCB47D-91CD-45B0-BB24-86893E2AA4A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -727,7 +727,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AA671FB-FB7C-4341-BD7C-1B37414345ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{294C22BD-0AC5-48B0-B362-BBD7D242DEF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>

--- a/numneeded.xlsx
+++ b/numneeded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A8C23449-A095-45D2-B1D9-8F2E0864C320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{001809C7-E431-4CDD-B508-0410BA66BCF4}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{A8C23449-A095-45D2-B1D9-8F2E0864C320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F7873CC6-90FF-471D-9BA3-1B33138A8945}"/>
   <bookViews>
     <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{A2A3957C-E7D2-4557-9D7D-C5C2E4273A03}"/>
   </bookViews>
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0234096498960815E-2</v>
+        <v>23.463285077914382</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.8065244695883114E-3</v>
+        <v>3.9910198770495233</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.817617422822404E-2</v>
+        <v>26.97016972502054</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.7976831302737532E-2</v>
+        <v>279.12957989341868</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.5087134376449416E-3</v>
+        <v>3.1007203886989365</v>
       </c>
     </row>
   </sheetData>
@@ -461,9 +461,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,19 +693,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513D0518-F28A-4489-84E9-58F9FDA95806}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{294C22BD-0AC5-48B0-B362-BBD7D242DEF7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -727,9 +726,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{294C22BD-0AC5-48B0-B362-BBD7D242DEF7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513D0518-F28A-4489-84E9-58F9FDA95806}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/numneeded.xlsx
+++ b/numneeded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{A8C23449-A095-45D2-B1D9-8F2E0864C320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F7873CC6-90FF-471D-9BA3-1B33138A8945}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{A8C23449-A095-45D2-B1D9-8F2E0864C320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{76A21C5B-C43D-4C24-8DF0-FAD811441AAE}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{A2A3957C-E7D2-4557-9D7D-C5C2E4273A03}"/>
+    <workbookView xWindow="2052" yWindow="1896" windowWidth="17280" windowHeight="9420" xr2:uid="{A2A3957C-E7D2-4557-9D7D-C5C2E4273A03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>23.463285077914382</v>
+        <v>1.1731642538957192</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.9910198770495233</v>
+        <v>0.19955099385247621</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>26.97016972502054</v>
+        <v>1.3485084862510273</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>279.12957989341868</v>
+        <v>13.956478994670936</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.1007203886989365</v>
+        <v>0.15503601943494683</v>
       </c>
     </row>
   </sheetData>
@@ -461,6 +461,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -469,7 +475,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E31C581AABD3D438D1210A0B9E9BAAA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a880cdde40dd4aeca72a964086578e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c349c498-aafa-4611-9c89-399ce2bd3502" xmlns:ns4="dabdaea4-a51c-41c0-88c7-2dcca5159689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8273ed8f1d147cc376b7c2884efaf481" ns3:_="" ns4:_="">
     <xsd:import namespace="c349c498-aafa-4611-9c89-399ce2bd3502"/>
@@ -692,13 +698,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513D0518-F28A-4489-84E9-58F9FDA95806}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{294C22BD-0AC5-48B0-B362-BBD7D242DEF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -706,7 +715,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87CCB47D-91CD-45B0-BB24-86893E2AA4A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -723,13 +732,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513D0518-F28A-4489-84E9-58F9FDA95806}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>